--- a/biology/Botanique/Simira_tinctoria/Simira_tinctoria.xlsx
+++ b/biology/Botanique/Simira_tinctoria/Simira_tinctoria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Simira tinctoria est une espèce d'arbuste d'Amérique du sud, appartenant à la famille des Rubiaceae. Il s'agit de l'espèce type du genre Simira.
-En Guyane, il est connu sous le nom de Adamna (Palikur)[4] ou Simira (Galibi).
+En Guyane, il est connu sous le nom de Adamna (Palikur) ou Simira (Galibi).
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Simira tinctoria est un arbre à feuilles oblongues à elliptiques, glabres ou glabrescentes sur la face inférieure.
 On compte  17-23 paires de nervures secondaires. Le pétiole est glabre.
-Les fleurs ont des pédicelles longs de 1 à 1,5 cm, pendantes. Le calice est turbiné, avec des lobes dentés. La corolle est tubulaire, à lobes arrondis, extérieurement glabrescente ou pubescente. Les 5 étamines sont attachées au tube de la corolle, avec des anthères biloculaires[5].
+Les fleurs ont des pédicelles longs de 1 à 1,5 cm, pendantes. Le calice est turbiné, avec des lobes dentés. La corolle est tubulaire, à lobes arrondis, extérieurement glabrescente ou pubescente. Les 5 étamines sont attachées au tube de la corolle, avec des anthères biloculaires.
 En 1953, Lemée en propose la description suivante de Simira tinctoria :
-« [Sickingia] tinctoria ? (Simira t. Àubl., Psychotria parviflora W., P. Simira R. et Sch.) renseignement dû à l'obligeance de M. Bremekamp[6]. Feuilles subsessiles, les plus grandes atteignant jusqu'à 0,36-0,38 sur 0,15-0,16, ovales aiguës molles entières glabres pâles en dessous, avec nervures latérales rougeâtres saillantes en dessous, stipules opposées bifides caduques longues aiguës ; fleurs en grosses grappes terminales à ramifications opposée décussées ayant à la base 2 bractées (ou stipules ?) longues et larges, calice 5~denté, corolle blanche à tube long et 5 lobes arrondis, filets staminaux longs, lobes stigmatiques obtus ; fruit ? Guy. franç. (Aublet). »
-— Albert Lemée, 1953.[7]</t>
+« [Sickingia] tinctoria ? (Simira t. Àubl., Psychotria parviflora W., P. Simira R. et Sch.) renseignement dû à l'obligeance de M. Bremekamp. Feuilles subsessiles, les plus grandes atteignant jusqu'à 0,36-0,38 sur 0,15-0,16, ovales aiguës molles entières glabres pâles en dessous, avec nervures latérales rougeâtres saillantes en dessous, stipules opposées bifides caduques longues aiguës ; fleurs en grosses grappes terminales à ramifications opposée décussées ayant à la base 2 bractées (ou stipules ?) longues et larges, calice 5~denté, corolle blanche à tube long et 5 lobes arrondis, filets staminaux longs, lobes stigmatiques obtus ; fruit ? Guy. franç. (Aublet). »
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -547,7 +561,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Simira tinctoria est présent sur le plateau des Guyanes et dans les contreforts Andins.
 </t>
@@ -578,7 +594,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'écologie de Simira tinctoria est largement méconnue.
 </t>
@@ -609,10 +627,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Pérou[8] et en Guyane, chez les Palikur et autrefois chez les Galibi, l'écorce de Simira tinctoria sert à teindre en "rose indien" le coton, les objets en bois et calebasses, ou comme peinture corporelle[4],[9],[10].
-Les extraits d'écorce de Simira tinctoria sont employés pour soigner les rhumatismes et les ulcères au Pérou. Sa chimie a été étudiée[11]. Elle contient de l'harmine[12] et des alcaloïdes aux propriétés anticorrosives[13],[14].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Pérou et en Guyane, chez les Palikur et autrefois chez les Galibi, l'écorce de Simira tinctoria sert à teindre en "rose indien" le coton, les objets en bois et calebasses, ou comme peinture corporelle.
+Les extraits d'écorce de Simira tinctoria sont employés pour soigner les rhumatismes et les ulcères au Pérou. Sa chimie a été étudiée. Elle contient de l'harmine et des alcaloïdes aux propriétés anticorrosives,.
 </t>
         </is>
       </c>
@@ -641,9 +661,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet en a proposé le protologue suivant[15] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet en a proposé le protologue suivant : 
 « SIMIRA (tinctoria). (TABULA 65.)
 Arbor, trunco decem vel duodecim-pedari, Ramos plures ad apicem emittente. Cortex trunci extùs rufeſcens, intùs ruber. Rami &amp; ramuli undiquè ſparſi. Folia ſubſeſſilia, oppoſita, ampla, ovata, acuta, glabra, integerrima, inferne pallide-virentia ; nervis tranſverſalibus purpurafcentibus. Stipule binx, decidual, longæ, acutæ, oppoſitæ, una ab utroque latere intrà folia. Flores racemoſi, terminates. Corolla alba. Pericarpium immaturum tantummodo obſervavi.
 Cortex utilis ad pannos ſericeos &amp; goſſypinos, rubro colore inficiendos.
